--- a/outputs/Lib_4.xlsx
+++ b/outputs/Lib_4.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidade\2º Semestre\Simulação\SO_trabalho\outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD8F8BE-6ECD-4FB3-A9B6-9236CDF61AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lib_4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -104,13 +123,16 @@
   </si>
   <si>
     <t>p20</t>
+  </si>
+  <si>
+    <t>Z-Z*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,11 +169,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -193,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,9 +255,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,6 +307,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,14 +500,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,13 +523,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -478,10 +549,14 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <f>(E2/C2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>1199545</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -498,10 +573,14 @@
         <v>2</v>
       </c>
       <c r="F3">
+        <f t="shared" ref="F3:F21" si="0">(E3/C3)*100</f>
+        <v>6.9149120077447021E-3</v>
+      </c>
+      <c r="G3">
         <v>1199753</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -518,10 +597,14 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>96080</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -538,10 +621,14 @@
         <v>0</v>
       </c>
       <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>190352</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -558,10 +645,14 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>5500</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -578,10 +669,14 @@
         <v>40</v>
       </c>
       <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.14297458626729098</v>
+      </c>
+      <c r="G7">
         <v>1199625</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -598,10 +693,14 @@
         <v>157</v>
       </c>
       <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.52854834365741987</v>
+      </c>
+      <c r="G8">
         <v>1199632</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -618,10 +717,14 @@
         <v>24</v>
       </c>
       <c r="F9">
+        <f t="shared" si="0"/>
+        <v>8.5735719644196767E-2</v>
+      </c>
+      <c r="G9">
         <v>1199417</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -638,10 +741,14 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>776915</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -658,10 +765,14 @@
         <v>74</v>
       </c>
       <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.25346805959924645</v>
+      </c>
+      <c r="G11">
         <v>1199575</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -678,10 +789,14 @@
         <v>59</v>
       </c>
       <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.16550718132854578</v>
+      </c>
+      <c r="G12">
         <v>1199563</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -698,10 +813,14 @@
         <v>0</v>
       </c>
       <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>410507</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -718,10 +837,14 @@
         <v>58</v>
       </c>
       <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.17123287671232876</v>
+      </c>
+      <c r="G14">
         <v>1199825</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -738,10 +861,14 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>971309</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -758,10 +885,14 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>806722</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -778,10 +909,14 @@
         <v>47</v>
       </c>
       <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.11953812503179206</v>
+      </c>
+      <c r="G17">
         <v>1200035</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -798,10 +933,14 @@
         <v>178</v>
       </c>
       <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.48009494012299059</v>
+      </c>
+      <c r="G18">
         <v>1200421</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -818,10 +957,14 @@
         <v>937</v>
       </c>
       <c r="F19">
+        <f t="shared" si="0"/>
+        <v>2.1363916185959555</v>
+      </c>
+      <c r="G19">
         <v>1200605</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -838,10 +981,14 @@
         <v>0</v>
       </c>
       <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>701442</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -858,6 +1005,10 @@
         <v>184</v>
       </c>
       <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.42291072906132204</v>
+      </c>
+      <c r="G21">
         <v>1200736</v>
       </c>
     </row>
